--- a/ocms/src/test/resources/TestData/OCMUserListingReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMUserListingReport.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984A52B3-18ED-4D61-AB2A-D657BFC22B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18240" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Queries" sheetId="1" r:id="rId1"/>
     <sheet name="Show" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -89,25 +90,25 @@
     <t>Role</t>
   </si>
   <si>
+    <t>OCM Checker</t>
+  </si>
+  <si>
     <t xml:space="preserve">Role </t>
   </si>
   <si>
     <t>User Name</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>i</t>
-  </si>
-  <si>
-    <t>Devision_Maker</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,21 +461,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -502,23 +503,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -549,10 +550,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -560,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -569,7 +570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -577,16 +578,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -594,13 +595,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
